--- a/minimal-example/ig/all-profiles.xlsx
+++ b/minimal-example/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T06:58:36+00:00</t>
+    <t>2025-05-06T07:03:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,7 +256,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS}
+    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice1}
 </t>
   </si>
   <si>
@@ -282,14 +282,14 @@
     <t>http://hl7.org/fhir/StructureDefinition/Base</t>
   </si>
   <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR}
+    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice1|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice3}
 </t>
   </si>
   <si>
-    <t>MatriculeINS</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/MatriculeINS</t>
+    <t>Choice1</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice1</t>
   </si>
   <si>
     <t>Matricule de l'Identité Nationale de Santé (INS). Il correspond au NIR (Numéro d’Identification au Répertoire des personnes physiques) ou au NIA (Numéro Identifiant Attente) de l’individu).</t>
@@ -375,10 +375,10 @@
     <t>1048576</t>
   </si>
   <si>
-    <t>PSIdNat</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/PSIdNat</t>
+    <t>Choice2</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2</t>
   </si>
   <si>
     <t xml:space="preserve">Identification nationale principale du professionnel propre aux SI de l’ANS et au CI-SIS. (Correspondance dans le MOS : idNat_PS) 
@@ -397,13 +397,13 @@
 PSIdNat-invariant:Le numéro PSIdNat doit être un entier commençant par 0, 1, 3, 4, 5, 6 ou 8 {$this.matches('^(0|1|3|4|5|6|8)\d*$')}</t>
   </si>
   <si>
-    <t>SNR</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/SNR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SNR</t>
+    <t>Choice3</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Choice3</t>
   </si>
   <si>
     <t xml:space="preserve">Identifiant interne de l’instance de la solution ayant produit le document au format OID </t>

--- a/minimal-example/ig/all-profiles.xlsx
+++ b/minimal-example/ig/all-profiles.xlsx
@@ -24,13 +24,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>ActorPatient</t>
+    <t>ActorChild</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatient</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorChild</t>
   </si>
   <si>
     <t>Version</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ActorPatient (LM)</t>
+    <t>ActorChild (LM)</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:03:04+00:00</t>
+    <t>2025-05-06T07:07:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorXDS</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorParent</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -250,7 +250,7 @@
     <t>Base</t>
   </si>
   <si>
-    <t>ActorPatient.XCN1[x]</t>
+    <t>ActorChild.XCN1[x]</t>
   </si>
   <si>
     <t>1</t>
@@ -266,13 +266,13 @@
     <t>124018852493334</t>
   </si>
   <si>
-    <t>ActorXDS.XCN1[x]</t>
-  </si>
-  <si>
-    <t>ActorXDS</t>
-  </si>
-  <si>
-    <t>ActorXDS (LM)</t>
+    <t>ActorParent.XCN1[x]</t>
+  </si>
+  <si>
+    <t>ActorParent</t>
+  </si>
+  <si>
+    <t>ActorParent (LM)</t>
   </si>
   <si>
     <t>Cet attribut représente un acteur (humain ou système) ayant contribué au document. Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient. 
@@ -1377,8 +1377,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="11.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="10.83984375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -1408,7 +1408,7 @@
     <col min="30" max="30" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="17.203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>

--- a/minimal-example/ig/all-profiles.xlsx
+++ b/minimal-example/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="137">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:07:29+00:00</t>
+    <t>2025-05-06T07:36:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -269,6 +269,47 @@
     <t>ActorParent.XCN1[x]</t>
   </si>
   <si>
+    <t>ActorChild.XCN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
+  </si>
+  <si>
+    <t>ActorParent.XCN3</t>
+  </si>
+  <si>
+    <t>ActorChild2</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorChild2</t>
+  </si>
+  <si>
+    <t>ActorChild2 (LM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet attribut représente un acteur PS. </t>
+  </si>
+  <si>
+    <t>ActorChild2.XCN1[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2}
+</t>
+  </si>
+  <si>
+    <t>801234567890</t>
+  </si>
+  <si>
+    <t>ActorChild2.XCN3</t>
+  </si>
+  <si>
+    <t>Prénom usuel de la personne</t>
+  </si>
+  <si>
     <t>ActorParent</t>
   </si>
   <si>
@@ -321,10 +362,6 @@
   </si>
   <si>
     <t>string.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>xml:id (or equivalent in JSON)</t>
@@ -540,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -725,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -733,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -749,7 +786,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
@@ -757,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -811,7 +848,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
@@ -847,7 +884,7 @@
         <v>30</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>32</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
@@ -855,7 +892,7 @@
         <v>31</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>87</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45">
@@ -895,7 +932,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>90</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -911,7 +948,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48">
@@ -919,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49">
@@ -973,7 +1010,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56">
@@ -1001,7 +1038,7 @@
         <v>28</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
@@ -1009,7 +1046,7 @@
         <v>30</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>93</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -1017,7 +1054,7 @@
         <v>31</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62">
@@ -1033,7 +1070,7 @@
         <v>35</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
@@ -1049,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66">
@@ -1057,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67">
@@ -1073,7 +1110,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69">
@@ -1081,7 +1118,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70">
@@ -1135,7 +1172,7 @@
         <v>22</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77">
@@ -1163,7 +1200,7 @@
         <v>28</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81">
@@ -1171,7 +1208,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82">
@@ -1179,7 +1216,7 @@
         <v>31</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83">
@@ -1195,7 +1232,7 @@
         <v>35</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85">
@@ -1211,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87">
@@ -1219,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
@@ -1235,7 +1272,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90">
@@ -1243,7 +1280,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91">
@@ -1297,7 +1334,7 @@
         <v>22</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98">
@@ -1325,7 +1362,7 @@
         <v>28</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102">
@@ -1333,7 +1370,7 @@
         <v>30</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103">
@@ -1341,7 +1378,7 @@
         <v>31</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104">
@@ -1357,7 +1394,169 @@
         <v>35</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>95</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1367,7 +1566,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK17"/>
+  <dimension ref="A1:AK22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1734,7 +1933,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>84</v>
@@ -1748,10 +1947,10 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>73</v>
@@ -1763,10 +1962,10 @@
         <v>73</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N4" t="s" s="2">
         <v>86</v>
@@ -1820,13 +2019,13 @@
         <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>73</v>
@@ -1837,13 +2036,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1851,10 +2050,10 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>73</v>
@@ -1866,13 +2065,13 @@
         <v>73</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -1923,13 +2122,13 @@
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>73</v>
@@ -1940,13 +2139,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -1954,10 +2153,10 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>73</v>
@@ -1969,17 +2168,15 @@
         <v>73</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
         <v>73</v>
@@ -1992,7 +2189,7 @@
         <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="V6" t="s" s="2">
         <v>73</v>
@@ -2028,30 +2225,30 @@
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2059,7 +2256,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2074,13 +2271,13 @@
         <v>73</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2131,10 +2328,10 @@
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
@@ -2148,17 +2345,17 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s" s="2">
@@ -2177,17 +2374,15 @@
         <v>73</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
         <v>73</v>
@@ -2236,7 +2431,7 @@
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>74</v>
@@ -2248,18 +2443,18 @@
         <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2267,7 +2462,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>79</v>
@@ -2285,10 +2480,10 @@
         <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2312,7 +2507,7 @@
         <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s" s="2">
         <v>73</v>
@@ -2339,10 +2534,10 @@
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>79</v>
@@ -2356,13 +2551,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2370,10 +2565,10 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>73</v>
@@ -2385,17 +2580,15 @@
         <v>73</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
         <v>73</v>
@@ -2444,30 +2637,30 @@
         <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>120</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2478,7 +2671,7 @@
         <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>73</v>
@@ -2490,15 +2683,17 @@
         <v>73</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
         <v>73</v>
@@ -2547,41 +2742,41 @@
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>73</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>73</v>
@@ -2593,17 +2788,15 @@
         <v>73</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
         <v>73</v>
@@ -2652,41 +2845,41 @@
         <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="C13" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>73</v>
@@ -2698,15 +2891,17 @@
         <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
         <v>73</v>
@@ -2728,7 +2923,7 @@
         <v>73</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s" s="2">
         <v>73</v>
@@ -2755,30 +2950,30 @@
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2789,7 +2984,7 @@
         <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>73</v>
@@ -2801,17 +2996,15 @@
         <v>73</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
         <v>73</v>
@@ -2833,7 +3026,7 @@
         <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>73</v>
@@ -2860,30 +3053,30 @@
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2894,7 +3087,7 @@
         <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>73</v>
@@ -2906,15 +3099,17 @@
         <v>73</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>73</v>
@@ -2963,41 +3158,41 @@
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>73</v>
@@ -3009,17 +3204,15 @@
         <v>73</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>73</v>
@@ -3068,41 +3261,41 @@
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>73</v>
@@ -3114,15 +3307,17 @@
         <v>73</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
         <v>73</v>
@@ -3144,7 +3339,7 @@
         <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s" s="2">
         <v>73</v>
@@ -3171,18 +3366,537 @@
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="I18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/minimal-example/ig/all-profiles.xlsx
+++ b/minimal-example/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="145">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:36:08+00:00</t>
+    <t>2025-05-06T08:04:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,34 @@
     <t>124018852493334</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>ActorParent.XCN1[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice1|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice3}
+</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>ActorChild.XCN10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Type de nom : Valeur en fonction de l’auteur : D, pour les personnes physiques, • U, pour les systèmes.</t>
+  </si>
+  <si>
+    <t>ActorParent.XCN10</t>
   </si>
   <si>
     <t>ActorChild.XCN3</t>
@@ -304,6 +331,9 @@
     <t>801234567890</t>
   </si>
   <si>
+    <t>ActorChild2.XCN10</t>
+  </si>
+  <si>
     <t>ActorChild2.XCN3</t>
   </si>
   <si>
@@ -321,10 +351,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice1|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice3}
-</t>
   </si>
   <si>
     <t>Choice1</t>
@@ -762,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -770,7 +796,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -786,7 +812,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
@@ -794,7 +820,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -848,7 +874,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40">
@@ -924,7 +950,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
@@ -948,7 +974,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
@@ -956,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49">
@@ -1010,7 +1036,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56">
@@ -1054,7 +1080,7 @@
         <v>31</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62">
@@ -1086,7 +1112,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66">
@@ -1094,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67">
@@ -1110,7 +1136,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69">
@@ -1118,7 +1144,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70">
@@ -1172,7 +1198,7 @@
         <v>22</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77">
@@ -1200,7 +1226,7 @@
         <v>28</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81">
@@ -1208,7 +1234,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82">
@@ -1216,7 +1242,7 @@
         <v>31</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83">
@@ -1232,7 +1258,7 @@
         <v>35</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85">
@@ -1248,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87">
@@ -1256,7 +1282,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88">
@@ -1272,7 +1298,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90">
@@ -1280,7 +1306,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91">
@@ -1334,7 +1360,7 @@
         <v>22</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98">
@@ -1362,7 +1388,7 @@
         <v>28</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102">
@@ -1370,7 +1396,7 @@
         <v>30</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103">
@@ -1378,7 +1404,7 @@
         <v>31</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104">
@@ -1394,7 +1420,7 @@
         <v>35</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106">
@@ -1410,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108">
@@ -1418,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109">
@@ -1434,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111">
@@ -1442,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112">
@@ -1496,7 +1522,7 @@
         <v>22</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119">
@@ -1524,7 +1550,7 @@
         <v>28</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123">
@@ -1532,7 +1558,7 @@
         <v>30</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124">
@@ -1540,7 +1566,7 @@
         <v>31</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125">
@@ -1556,7 +1582,7 @@
         <v>35</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1592,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK22"/>
+  <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1904,19 +1930,17 @@
         <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AD3" s="2"/>
       <c r="AE3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -1936,10 +1960,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1962,13 +1986,13 @@
         <v>73</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -1980,7 +2004,7 @@
         <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="U4" t="s" s="2">
         <v>73</v>
@@ -2019,7 +2043,7 @@
         <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>79</v>
@@ -2036,7 +2060,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>88</v>
@@ -2050,10 +2074,10 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>73</v>
@@ -2065,13 +2089,13 @@
         <v>73</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="M5" t="s" s="2">
         <v>90</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -2122,13 +2146,13 @@
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>73</v>
@@ -2139,7 +2163,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>92</v>
@@ -2171,10 +2195,10 @@
         <v>93</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -2189,7 +2213,7 @@
         <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
         <v>73</v>
@@ -2225,7 +2249,7 @@
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>79</v>
@@ -2242,13 +2266,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2256,10 +2280,10 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>73</v>
@@ -2271,13 +2295,13 @@
         <v>73</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2328,13 +2352,13 @@
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>73</v>
@@ -2345,13 +2369,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2359,10 +2383,10 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>73</v>
@@ -2374,13 +2398,13 @@
         <v>73</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -2395,7 +2419,7 @@
         <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="V8" t="s" s="2">
         <v>73</v>
@@ -2431,13 +2455,13 @@
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -2448,13 +2472,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2477,13 +2501,13 @@
         <v>73</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2534,7 +2558,7 @@
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>79</v>
@@ -2551,13 +2575,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2580,13 +2604,13 @@
         <v>73</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -2637,7 +2661,7 @@
         <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>79</v>
@@ -2654,7 +2678,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2686,14 +2710,12 @@
         <v>76</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
         <v>73</v>
@@ -2742,7 +2764,7 @@
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>74</v>
@@ -2754,18 +2776,18 @@
         <v>73</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2773,7 +2795,7 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -2788,13 +2810,13 @@
         <v>73</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -2845,10 +2867,10 @@
         <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
@@ -2862,24 +2884,24 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>73</v>
@@ -2891,17 +2913,15 @@
         <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
         <v>73</v>
@@ -2950,30 +2970,30 @@
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2981,7 +3001,7 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -2996,13 +3016,13 @@
         <v>73</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -3026,7 +3046,7 @@
         <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>73</v>
@@ -3053,10 +3073,10 @@
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
@@ -3070,13 +3090,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3102,13 +3122,13 @@
         <v>76</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
@@ -3158,7 +3178,7 @@
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
@@ -3170,18 +3190,18 @@
         <v>73</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3204,13 +3224,13 @@
         <v>73</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -3261,7 +3281,7 @@
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
@@ -3278,17 +3298,17 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
@@ -3307,16 +3327,16 @@
         <v>73</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
@@ -3366,7 +3386,7 @@
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
@@ -3378,18 +3398,18 @@
         <v>73</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3412,13 +3432,13 @@
         <v>73</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -3442,7 +3462,7 @@
         <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="Y18" t="s" s="2">
         <v>73</v>
@@ -3469,7 +3489,7 @@
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
@@ -3486,13 +3506,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3518,13 +3538,13 @@
         <v>76</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
@@ -3574,7 +3594,7 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
@@ -3586,18 +3606,18 @@
         <v>73</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3620,13 +3640,13 @@
         <v>73</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -3677,7 +3697,7 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
@@ -3694,17 +3714,17 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
@@ -3723,16 +3743,16 @@
         <v>73</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
@@ -3782,7 +3802,7 @@
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
@@ -3794,18 +3814,18 @@
         <v>73</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="C22" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3828,13 +3848,13 @@
         <v>73</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -3858,7 +3878,7 @@
         <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="Y22" t="s" s="2">
         <v>73</v>
@@ -3885,7 +3905,7 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
@@ -3897,6 +3917,422 @@
         <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/minimal-example/ig/all-profiles.xlsx
+++ b/minimal-example/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="143">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T08:04:12+00:00</t>
+    <t>2025-05-06T12:03:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,91 +266,84 @@
     <t>124018852493334</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
+    <t>ActorParent.XCN1[x]</t>
+  </si>
+  <si>
+    <t>ActorChild.XCN10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>ActorParent.XCN1[x]</t>
+    <t>Type de nom : Valeur en fonction de l’auteur : D, pour les personnes physiques, • U, pour les systèmes.</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>ActorParent.XCN10</t>
+  </si>
+  <si>
+    <t>ActorChild.XCN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
+  </si>
+  <si>
+    <t>ActorParent.XCN3</t>
+  </si>
+  <si>
+    <t>ActorChild2</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorChild2</t>
+  </si>
+  <si>
+    <t>ActorChild2 (LM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet attribut représente un acteur PS. </t>
+  </si>
+  <si>
+    <t>ActorChild2.XCN1[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2}
+</t>
+  </si>
+  <si>
+    <t>801234567890</t>
+  </si>
+  <si>
+    <t>ActorChild2.XCN10</t>
+  </si>
+  <si>
+    <t>ActorChild2.XCN3</t>
+  </si>
+  <si>
+    <t>Prénom usuel de la personne</t>
+  </si>
+  <si>
+    <t>ActorParent</t>
+  </si>
+  <si>
+    <t>ActorParent (LM)</t>
+  </si>
+  <si>
+    <t>Cet attribut représente un acteur (humain ou système) ayant contribué au document. Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient. 
+XCN de HL7 v2.5</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
   </si>
   <si>
     <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice1|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice3}
 </t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>ActorChild.XCN10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Type de nom : Valeur en fonction de l’auteur : D, pour les personnes physiques, • U, pour les systèmes.</t>
-  </si>
-  <si>
-    <t>ActorParent.XCN10</t>
-  </si>
-  <si>
-    <t>ActorChild.XCN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
-  </si>
-  <si>
-    <t>ActorParent.XCN3</t>
-  </si>
-  <si>
-    <t>ActorChild2</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorChild2</t>
-  </si>
-  <si>
-    <t>ActorChild2 (LM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cet attribut représente un acteur PS. </t>
-  </si>
-  <si>
-    <t>ActorChild2.XCN1[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2}
-</t>
-  </si>
-  <si>
-    <t>801234567890</t>
-  </si>
-  <si>
-    <t>ActorChild2.XCN10</t>
-  </si>
-  <si>
-    <t>ActorChild2.XCN3</t>
-  </si>
-  <si>
-    <t>Prénom usuel de la personne</t>
-  </si>
-  <si>
-    <t>ActorParent</t>
-  </si>
-  <si>
-    <t>ActorParent (LM)</t>
-  </si>
-  <si>
-    <t>Cet attribut représente un acteur (humain ou système) ayant contribué au document. Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient. 
-XCN de HL7 v2.5</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
   </si>
   <si>
     <t>Choice1</t>
@@ -788,7 +781,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
@@ -796,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -812,7 +805,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
@@ -820,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28">
@@ -874,7 +867,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -910,7 +903,7 @@
         <v>30</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
@@ -950,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
@@ -974,7 +967,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48">
@@ -982,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49">
@@ -1036,7 +1029,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
@@ -1080,7 +1073,7 @@
         <v>31</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62">
@@ -1112,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66">
@@ -1120,7 +1113,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67">
@@ -1136,7 +1129,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69">
@@ -1144,7 +1137,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70">
@@ -1198,7 +1191,7 @@
         <v>22</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77">
@@ -1226,7 +1219,7 @@
         <v>28</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81">
@@ -1234,7 +1227,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82">
@@ -1242,7 +1235,7 @@
         <v>31</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83">
@@ -1258,7 +1251,7 @@
         <v>35</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85">
@@ -1274,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87">
@@ -1282,7 +1275,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88">
@@ -1298,7 +1291,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90">
@@ -1306,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91">
@@ -1360,7 +1353,7 @@
         <v>22</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98">
@@ -1388,7 +1381,7 @@
         <v>28</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102">
@@ -1396,7 +1389,7 @@
         <v>30</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103">
@@ -1404,7 +1397,7 @@
         <v>31</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104">
@@ -1420,7 +1413,7 @@
         <v>35</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106">
@@ -1436,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108">
@@ -1444,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109">
@@ -1460,7 +1453,7 @@
         <v>8</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111">
@@ -1468,7 +1461,7 @@
         <v>9</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112">
@@ -1522,7 +1515,7 @@
         <v>22</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119">
@@ -1550,7 +1543,7 @@
         <v>28</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123">
@@ -1558,7 +1551,7 @@
         <v>30</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124">
@@ -1566,7 +1559,7 @@
         <v>31</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125">
@@ -1582,7 +1575,7 @@
         <v>35</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1592,7 +1585,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AK25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1930,17 +1923,19 @@
         <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AD3" s="2"/>
-      <c r="AE3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -1960,10 +1955,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1986,13 +1981,13 @@
         <v>73</v>
       </c>
       <c r="L4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="M4" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="N4" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -2043,7 +2038,7 @@
         <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>79</v>
@@ -2063,10 +2058,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -2089,13 +2084,13 @@
         <v>73</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -2146,7 +2141,7 @@
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
@@ -2163,13 +2158,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2177,10 +2172,10 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>73</v>
@@ -2192,13 +2187,13 @@
         <v>73</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -2249,13 +2244,13 @@
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
@@ -2266,13 +2261,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2280,10 +2275,10 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>73</v>
@@ -2295,13 +2290,13 @@
         <v>73</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2316,7 +2311,7 @@
         <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="V7" t="s" s="2">
         <v>73</v>
@@ -2352,13 +2347,13 @@
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>73</v>
@@ -2369,7 +2364,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>100</v>
@@ -2398,13 +2393,13 @@
         <v>73</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -2416,10 +2411,10 @@
         <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="V8" t="s" s="2">
         <v>73</v>
@@ -2455,7 +2450,7 @@
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>79</v>
@@ -2472,13 +2467,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2501,13 +2496,13 @@
         <v>73</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2558,7 +2553,7 @@
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>79</v>
@@ -2575,13 +2570,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2589,10 +2584,10 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>73</v>
@@ -2604,13 +2599,13 @@
         <v>73</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="M10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -2661,13 +2656,13 @@
         <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2678,13 +2673,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2692,10 +2687,10 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>73</v>
@@ -2707,13 +2702,13 @@
         <v>73</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -2764,13 +2759,13 @@
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>73</v>
@@ -2781,13 +2776,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2810,13 +2805,13 @@
         <v>73</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="N12" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -2828,7 +2823,7 @@
         <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="U12" t="s" s="2">
         <v>73</v>
@@ -2867,7 +2862,7 @@
         <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>79</v>
@@ -2884,13 +2879,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2913,13 +2908,13 @@
         <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2970,7 +2965,7 @@
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
@@ -2987,13 +2982,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3001,10 +2996,10 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>73</v>
@@ -3016,15 +3011,17 @@
         <v>73</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
         <v>73</v>
@@ -3073,30 +3070,30 @@
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3107,7 +3104,7 @@
         <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>73</v>
@@ -3119,17 +3116,15 @@
         <v>73</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>73</v>
@@ -3178,41 +3173,41 @@
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>120</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>73</v>
@@ -3224,15 +3219,17 @@
         <v>73</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>73</v>
@@ -3281,41 +3278,41 @@
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>73</v>
@@ -3327,17 +3324,15 @@
         <v>73</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
         <v>73</v>
@@ -3359,7 +3354,7 @@
         <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="Y17" t="s" s="2">
         <v>73</v>
@@ -3392,24 +3387,24 @@
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3420,7 +3415,7 @@
         <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>73</v>
@@ -3432,15 +3427,17 @@
         <v>73</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
         <v>73</v>
@@ -3462,7 +3459,7 @@
         <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="Y18" t="s" s="2">
         <v>73</v>
@@ -3489,30 +3486,30 @@
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>73</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3523,7 +3520,7 @@
         <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>73</v>
@@ -3535,17 +3532,15 @@
         <v>73</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
         <v>73</v>
@@ -3594,41 +3589,41 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>140</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>73</v>
@@ -3640,15 +3635,17 @@
         <v>73</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
         <v>73</v>
@@ -3697,41 +3694,41 @@
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>73</v>
@@ -3743,17 +3740,15 @@
         <v>73</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
         <v>73</v>
@@ -3775,7 +3770,7 @@
         <v>73</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="Y21" t="s" s="2">
         <v>73</v>
@@ -3808,24 +3803,24 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3836,7 +3831,7 @@
         <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>73</v>
@@ -3848,15 +3843,17 @@
         <v>73</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
         <v>73</v>
@@ -3878,7 +3875,7 @@
         <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="Y22" t="s" s="2">
         <v>73</v>
@@ -3905,30 +3902,30 @@
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3939,7 +3936,7 @@
         <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>73</v>
@@ -3951,17 +3948,15 @@
         <v>73</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
         <v>73</v>
@@ -4010,41 +4005,41 @@
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>120</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>73</v>
@@ -4056,15 +4051,17 @@
         <v>73</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
         <v>73</v>
@@ -4113,41 +4110,41 @@
         <v>73</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>73</v>
@@ -4159,17 +4156,15 @@
         <v>73</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
         <v>73</v>
@@ -4191,7 +4186,7 @@
         <v>73</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="Y25" t="s" s="2">
         <v>73</v>
@@ -4224,115 +4219,12 @@
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R26" s="2"/>
-      <c r="S26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK26" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/minimal-example/ig/all-profiles.xlsx
+++ b/minimal-example/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="120">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T12:03:39+00:00</t>
+    <t>2025-05-06T12:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,17 +256,44 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice1}
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice1
 </t>
   </si>
   <si>
     <t>Identifiant de l'acteur</t>
   </si>
   <si>
-    <t>124018852493334</t>
+    <t>example-xcn1-actorchild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>ActorParent.XCN1[x]</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice1
+https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice3</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>ActorChild.XCN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
+  </si>
+  <si>
+    <t>ActorParent.XCN3</t>
   </si>
   <si>
     <t>ActorChild.XCN10</t>
@@ -279,54 +306,35 @@
     <t>Type de nom : Valeur en fonction de l’auteur : D, pour les personnes physiques, • U, pour les systèmes.</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>ActorParent.XCN10</t>
   </si>
   <si>
-    <t>ActorChild.XCN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
+    <t>ActorChild2</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorChild2</t>
+  </si>
+  <si>
+    <t>ActorChild2 (LM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet attribut représente un acteur PS. </t>
+  </si>
+  <si>
+    <t>ActorChild2.XCN1[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2
 </t>
   </si>
   <si>
-    <t>Prénom usuel de la personne (par défaut le premier prénom), nom du modèle pour les dispositifs ou dénomination pour les autres systèmes.</t>
-  </si>
-  <si>
-    <t>ActorParent.XCN3</t>
-  </si>
-  <si>
-    <t>ActorChild2</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorChild2</t>
-  </si>
-  <si>
-    <t>ActorChild2 (LM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cet attribut représente un acteur PS. </t>
-  </si>
-  <si>
-    <t>ActorChild2.XCN1[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2}
-</t>
-  </si>
-  <si>
-    <t>801234567890</t>
+    <t>example-xcn1-actorchild2</t>
+  </si>
+  <si>
+    <t>ActorChild2.XCN3</t>
   </si>
   <si>
     <t>ActorChild2.XCN10</t>
-  </si>
-  <si>
-    <t>ActorChild2.XCN3</t>
-  </si>
-  <si>
-    <t>Prénom usuel de la personne</t>
   </si>
   <si>
     <t>ActorParent</t>
@@ -342,10 +350,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/Base</t>
   </si>
   <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice1|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice2|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/Choice3}
-</t>
-  </si>
-  <si>
     <t>Choice1</t>
   </si>
   <si>
@@ -353,82 +357,6 @@
   </si>
   <si>
     <t>Matricule de l'Identité Nationale de Santé (INS). Il correspond au NIR (Numéro d’Identification au Répertoire des personnes physiques) ou au NIA (Numéro Identifiant Attente) de l’individu).</t>
-  </si>
-  <si>
-    <t>primitive-type</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/string</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>Primitive Type string</t>
-  </si>
-  <si>
-    <t>A sequence of Unicode characters</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>string.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>string.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
-    <t>Primitive value for string</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>1048576</t>
   </si>
   <si>
     <t>Choice2</t>
@@ -449,8 +377,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-PSIdNat-invariant:Le numéro PSIdNat doit être un entier commençant par 0, 1, 3, 4, 5, 6 ou 8 {$this.matches('^(0|1|3|4|5|6|8)\d*$')}</t>
+    <t xml:space="preserve">PSIdNat-invariant:Le numéro PSIdNat doit être un entier commençant par 0, 1, 3, 4, 5, 6 ou 8 {$this.matches('^(0|1|3|4|5|6|8)\d*$')}
+</t>
   </si>
   <si>
     <t>Choice3</t>
@@ -781,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -789,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -805,7 +733,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
@@ -813,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -867,7 +795,7 @@
         <v>22</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
@@ -903,7 +831,7 @@
         <v>30</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40">
@@ -943,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45">
@@ -967,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
@@ -975,7 +903,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
@@ -1029,7 +957,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56">
@@ -1073,7 +1001,7 @@
         <v>31</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62">
@@ -1105,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66">
@@ -1113,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67">
@@ -1129,7 +1057,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69">
@@ -1137,7 +1065,7 @@
         <v>9</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70">
@@ -1191,7 +1119,7 @@
         <v>22</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77">
@@ -1219,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>111</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
@@ -1227,7 +1155,7 @@
         <v>30</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82">
@@ -1235,7 +1163,7 @@
         <v>31</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83">
@@ -1251,7 +1179,7 @@
         <v>35</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>114</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85">
@@ -1267,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87">
@@ -1275,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88">
@@ -1291,7 +1219,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90">
@@ -1299,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91">
@@ -1353,7 +1281,7 @@
         <v>22</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98">
@@ -1381,7 +1309,7 @@
         <v>28</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>111</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102">
@@ -1389,7 +1317,7 @@
         <v>30</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103">
@@ -1397,7 +1325,7 @@
         <v>31</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104">
@@ -1413,7 +1341,7 @@
         <v>35</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>114</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106">
@@ -1429,7 +1357,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108">
@@ -1437,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109">
@@ -1453,7 +1381,7 @@
         <v>8</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111">
@@ -1461,7 +1389,7 @@
         <v>9</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112">
@@ -1515,7 +1443,7 @@
         <v>22</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>142</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119">
@@ -1543,7 +1471,7 @@
         <v>28</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>111</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123">
@@ -1551,7 +1479,7 @@
         <v>30</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124">
@@ -1559,7 +1487,7 @@
         <v>31</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125">
@@ -1575,7 +1503,7 @@
         <v>35</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>114</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1513,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK25"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1598,7 +1526,7 @@
     <col min="2" max="2" width="17.203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="10.83984375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.6796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
@@ -1608,13 +1536,13 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="229.828125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="10.3984375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="7.6953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.89453125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="21.39453125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
@@ -1923,19 +1851,17 @@
         <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AD3" s="2"/>
       <c r="AE3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -1955,10 +1881,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1981,13 +1907,13 @@
         <v>73</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -2038,7 +1964,7 @@
         <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>79</v>
@@ -2058,10 +1984,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -2084,13 +2010,13 @@
         <v>73</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="N5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -2141,7 +2067,7 @@
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
@@ -2158,13 +2084,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2172,10 +2098,10 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>73</v>
@@ -2187,13 +2113,13 @@
         <v>73</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -2244,13 +2170,13 @@
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
@@ -2261,13 +2187,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2275,10 +2201,10 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>73</v>
@@ -2290,13 +2216,13 @@
         <v>73</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M7" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="N7" t="s" s="2">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2311,7 +2237,7 @@
         <v>73</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="V7" t="s" s="2">
         <v>73</v>
@@ -2347,13 +2273,13 @@
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>73</v>
@@ -2364,7 +2290,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>100</v>
@@ -2393,13 +2319,13 @@
         <v>73</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -2411,10 +2337,10 @@
         <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="V8" t="s" s="2">
         <v>73</v>
@@ -2438,19 +2364,17 @@
         <v>73</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AD8" s="2"/>
       <c r="AE8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>79</v>
@@ -2467,13 +2391,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2496,13 +2420,13 @@
         <v>73</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2514,7 +2438,7 @@
         <v>73</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="U9" t="s" s="2">
         <v>73</v>
@@ -2553,7 +2477,7 @@
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>79</v>
@@ -2570,7 +2494,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>103</v>
@@ -2584,10 +2508,10 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>73</v>
@@ -2599,13 +2523,13 @@
         <v>73</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -2656,13 +2580,13 @@
         <v>73</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2673,13 +2597,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2702,13 +2626,13 @@
         <v>73</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -2759,7 +2683,7 @@
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>79</v>
@@ -2776,13 +2700,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2790,10 +2714,10 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>73</v>
@@ -2805,13 +2729,13 @@
         <v>73</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -2823,7 +2747,7 @@
         <v>73</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="U12" t="s" s="2">
         <v>73</v>
@@ -2862,13 +2786,13 @@
         <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>73</v>
@@ -2879,13 +2803,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2908,13 +2832,13 @@
         <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -2965,7 +2889,7 @@
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
@@ -2982,13 +2906,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2996,10 +2920,10 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>73</v>
@@ -3011,17 +2935,15 @@
         <v>73</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
         <v>73</v>
@@ -3070,30 +2992,30 @@
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>118</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3101,7 +3023,7 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3116,13 +3038,13 @@
         <v>73</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -3173,10 +3095,10 @@
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
@@ -3190,17 +3112,17 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
@@ -3219,17 +3141,15 @@
         <v>73</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>73</v>
@@ -3278,7 +3198,7 @@
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
@@ -3290,18 +3210,18 @@
         <v>73</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3312,7 +3232,7 @@
         <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>73</v>
@@ -3324,13 +3244,13 @@
         <v>73</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -3354,7 +3274,7 @@
         <v>73</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s" s="2">
         <v>73</v>
@@ -3381,30 +3301,30 @@
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>73</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3427,17 +3347,15 @@
         <v>73</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
         <v>73</v>
@@ -3486,7 +3404,7 @@
         <v>73</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
@@ -3498,733 +3416,6 @@
         <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R19" s="2"/>
-      <c r="S19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R20" s="2"/>
-      <c r="S20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R21" s="2"/>
-      <c r="S21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R22" s="2"/>
-      <c r="S22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R23" s="2"/>
-      <c r="S23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R24" s="2"/>
-      <c r="S24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R25" s="2"/>
-      <c r="S25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK25" t="s" s="2">
         <v>73</v>
       </c>
     </row>
